--- a/doc/TriggerDocTemplate.xlsx
+++ b/doc/TriggerDocTemplate.xlsx
@@ -4,24 +4,58 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="443" yWindow="122" windowWidth="19407" windowHeight="8983"/>
+    <workbookView xWindow="55" yWindow="343" windowWidth="19407" windowHeight="8983"/>
   </bookViews>
   <sheets>
-    <sheet name="Trigger Doc" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Trigger Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Trigger Details" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PTC Integrity LM:  Trigger Documentation by Type</t>
   </si>
   <si>
     <t>s=Script, p=Script Parameter, pre=Pre Trigger, post=Post Trigger, q=Has Query, a=Has Assignments, (#)=Type Counter</t>
+  </si>
+  <si>
+    <t>PTC Integrity LM:  Trigger Details</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Trigger Type</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Assignments</t>
   </si>
 </sst>
 </file>
@@ -109,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,11 +151,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -157,6 +215,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -466,7 +540,7 @@
   <dimension ref="B2:BM50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,13 +741,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:BK36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="36.3984375" customWidth="1"/>
+    <col min="12" max="12" width="28.5" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="28.5" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="2.5" customWidth="1"/>
+    <col min="18" max="18" width="28.5" customWidth="1"/>
+    <col min="19" max="19" width="2.5" customWidth="1"/>
+    <col min="20" max="20" width="28.5" customWidth="1"/>
+    <col min="21" max="21" width="2.5" customWidth="1"/>
+    <col min="22" max="22" width="28.5" customWidth="1"/>
+    <col min="23" max="23" width="2.5" customWidth="1"/>
+    <col min="24" max="24" width="28.5" customWidth="1"/>
+    <col min="25" max="25" width="2.5" customWidth="1"/>
+    <col min="26" max="26" width="28.5" customWidth="1"/>
+    <col min="27" max="27" width="2.5" customWidth="1"/>
+    <col min="28" max="28" width="26.59765625" customWidth="1"/>
+    <col min="29" max="29" width="2.5" customWidth="1"/>
+    <col min="30" max="30" width="26.796875" customWidth="1"/>
+    <col min="31" max="31" width="2.5" customWidth="1"/>
+    <col min="32" max="32" width="28.19921875" customWidth="1"/>
+    <col min="33" max="33" width="2.5" customWidth="1"/>
+    <col min="34" max="34" width="27.59765625" customWidth="1"/>
+    <col min="35" max="35" width="2.5" customWidth="1"/>
+    <col min="36" max="36" width="26.59765625" customWidth="1"/>
+    <col min="37" max="37" width="2.5" customWidth="1"/>
+    <col min="38" max="38" width="26.796875" customWidth="1"/>
+    <col min="39" max="39" width="2.5" customWidth="1"/>
+    <col min="40" max="40" width="28.19921875" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
+    <col min="42" max="42" width="27.59765625" customWidth="1"/>
+    <col min="43" max="43" width="2.5" customWidth="1"/>
+    <col min="44" max="44" width="26.59765625" customWidth="1"/>
+    <col min="45" max="45" width="2.5" customWidth="1"/>
+    <col min="46" max="46" width="26.796875" customWidth="1"/>
+    <col min="47" max="47" width="2.5" customWidth="1"/>
+    <col min="48" max="48" width="28.19921875" customWidth="1"/>
+    <col min="49" max="49" width="2.5" customWidth="1"/>
+    <col min="50" max="50" width="27.59765625" customWidth="1"/>
+    <col min="51" max="51" width="2.5" customWidth="1"/>
+    <col min="52" max="52" width="26.59765625" customWidth="1"/>
+    <col min="53" max="53" width="2.59765625" customWidth="1"/>
+    <col min="54" max="54" width="26.796875" customWidth="1"/>
+    <col min="55" max="55" width="2.296875" customWidth="1"/>
+    <col min="56" max="56" width="28.19921875" customWidth="1"/>
+    <col min="57" max="57" width="2.8984375" customWidth="1"/>
+    <col min="58" max="58" width="27.59765625" customWidth="1"/>
+    <col min="59" max="59" width="2.59765625" customWidth="1"/>
+    <col min="60" max="60" width="26.59765625" customWidth="1"/>
+    <col min="61" max="61" width="2.59765625" customWidth="1"/>
+    <col min="62" max="62" width="26.796875" customWidth="1"/>
+    <col min="64" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:63" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:63" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="5" spans="2:63" s="3" customFormat="1" ht="18.3" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+    </row>
+    <row r="6" spans="2:63" s="16" customFormat="1" ht="2.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+    </row>
+    <row r="7" spans="2:63" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.74803149606299213" header="0.11811023622047245" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;8&amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;8PTC&amp;R&amp;8&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -687,4 +1034,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>